--- a/results/24hr_randomForests.xlsx
+++ b/results/24hr_randomForests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>bestHyperparameters</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>{'criterion': 'entropy', 'max_depth': 20, 'max_features': 'sqrt', 'max_leaf_nodes': 10, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 46}</t>
+  </si>
+  <si>
+    <t>{'criterion': 'entropy', 'max_depth': 7, 'max_features': 'sqrt', 'max_leaf_nodes': 10, 'min_samples_leaf': 3, 'min_samples_split': 6, 'n_estimators': 2000}</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="A2:C5"/>
@@ -530,6 +533,17 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="1048576" s="4" spans="1:3"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
